--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Trf-Tfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Trf-Tfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +537,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7161673333333334</v>
+        <v>0.7939700000000002</v>
       </c>
       <c r="H2">
-        <v>2.148502</v>
+        <v>2.38191</v>
       </c>
       <c r="I2">
-        <v>0.004019289977344153</v>
+        <v>0.008990908376056485</v>
       </c>
       <c r="J2">
-        <v>0.004019289977344153</v>
+        <v>0.008990908376056485</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,27 +567,27 @@
         <v>1.227979</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.6924542622754842</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.6924542622754842</v>
       </c>
       <c r="Q2">
-        <v>0.2931461486064445</v>
+        <v>0.3249928288766668</v>
       </c>
       <c r="R2">
-        <v>2.638315337458001</v>
+        <v>2.924935459890001</v>
       </c>
       <c r="S2">
-        <v>0.004019289977344153</v>
+        <v>0.006225792826728666</v>
       </c>
       <c r="T2">
-        <v>0.004019289977344153</v>
+        <v>0.006225792826728666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.248509666666666</v>
+        <v>0.7939700000000002</v>
       </c>
       <c r="H3">
-        <v>12.745529</v>
+        <v>2.38191</v>
       </c>
       <c r="I3">
-        <v>0.02384357890551148</v>
+        <v>0.008990908376056485</v>
       </c>
       <c r="J3">
-        <v>0.02384357890551149</v>
+        <v>0.008990908376056485</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.4093263333333334</v>
+        <v>0.1817976666666667</v>
       </c>
       <c r="N3">
-        <v>1.227979</v>
+        <v>0.545393</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.3075457377245157</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.3075457377245158</v>
       </c>
       <c r="Q3">
-        <v>1.739026883987889</v>
+        <v>0.1443418934033334</v>
       </c>
       <c r="R3">
-        <v>15.651241955891</v>
+        <v>1.29907704063</v>
       </c>
       <c r="S3">
-        <v>0.02384357890551148</v>
+        <v>0.002765115549327819</v>
       </c>
       <c r="T3">
-        <v>0.02384357890551149</v>
+        <v>0.00276511554932782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.817505</v>
+        <v>4.248509666666666</v>
       </c>
       <c r="H4">
-        <v>146.452515</v>
+        <v>12.745529</v>
       </c>
       <c r="I4">
-        <v>0.2739746696518524</v>
+        <v>0.04811008117156854</v>
       </c>
       <c r="J4">
-        <v>0.2739746696518524</v>
+        <v>0.04811008117156854</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -691,27 +691,27 @@
         <v>1.227979</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.6924542622754842</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.6924542622754842</v>
       </c>
       <c r="Q4">
-        <v>19.98229032413167</v>
+        <v>1.739026883987889</v>
       </c>
       <c r="R4">
-        <v>179.840612917185</v>
+        <v>15.651241955891</v>
       </c>
       <c r="S4">
-        <v>0.2739746696518524</v>
+        <v>0.03331403076567215</v>
       </c>
       <c r="T4">
-        <v>0.2739746696518524</v>
+        <v>0.03331403076567215</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9730783333333334</v>
+        <v>4.248509666666666</v>
       </c>
       <c r="H5">
-        <v>2.919235</v>
+        <v>12.745529</v>
       </c>
       <c r="I5">
-        <v>0.00546113151256655</v>
+        <v>0.04811008117156854</v>
       </c>
       <c r="J5">
-        <v>0.00546113151256655</v>
+        <v>0.04811008117156854</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4093263333333334</v>
+        <v>0.1817976666666667</v>
       </c>
       <c r="N5">
-        <v>1.227979</v>
+        <v>0.545393</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.3075457377245157</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.3075457377245158</v>
       </c>
       <c r="Q5">
-        <v>0.3983065862294445</v>
+        <v>0.7723691442107776</v>
       </c>
       <c r="R5">
-        <v>3.584759276065001</v>
+        <v>6.951322297897</v>
       </c>
       <c r="S5">
-        <v>0.00546113151256655</v>
+        <v>0.01479605040589638</v>
       </c>
       <c r="T5">
-        <v>0.00546113151256655</v>
+        <v>0.01479605040589638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.90180899999999</v>
+        <v>23.67666533333333</v>
       </c>
       <c r="H6">
-        <v>101.705427</v>
+        <v>71.029996</v>
       </c>
       <c r="I6">
-        <v>0.1902644742162713</v>
+        <v>0.2681143225342933</v>
       </c>
       <c r="J6">
-        <v>0.1902644742162713</v>
+        <v>0.2681143225342933</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -815,27 +815,27 @@
         <v>1.227979</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.6924542622754842</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.6924542622754842</v>
       </c>
       <c r="Q6">
-        <v>13.876903171337</v>
+        <v>9.691482606453778</v>
       </c>
       <c r="R6">
-        <v>124.892128542033</v>
+        <v>87.223343458084</v>
       </c>
       <c r="S6">
-        <v>0.1902644742162713</v>
+        <v>0.1856569054159753</v>
       </c>
       <c r="T6">
-        <v>0.1902644742162713</v>
+        <v>0.1856569054159753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,418 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>89.52547966666667</v>
+        <v>23.67666533333333</v>
       </c>
       <c r="H7">
-        <v>268.576439</v>
+        <v>71.029996</v>
       </c>
       <c r="I7">
-        <v>0.5024368557364541</v>
+        <v>0.2681143225342933</v>
       </c>
       <c r="J7">
-        <v>0.5024368557364541</v>
+        <v>0.2681143225342933</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1817976666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.545393</v>
+      </c>
+      <c r="O7">
+        <v>0.3075457377245157</v>
+      </c>
+      <c r="P7">
+        <v>0.3075457377245158</v>
+      </c>
+      <c r="Q7">
+        <v>4.304362512047556</v>
+      </c>
+      <c r="R7">
+        <v>38.739262608428</v>
+      </c>
+      <c r="S7">
+        <v>0.08245741711831797</v>
+      </c>
+      <c r="T7">
+        <v>0.08245741711831799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.2020363333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.606109</v>
+      </c>
+      <c r="I8">
+        <v>0.002287857427402051</v>
+      </c>
+      <c r="J8">
+        <v>0.002287857427402051</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>0.4093263333333334</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>1.227979</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>36.64513633186456</v>
-      </c>
-      <c r="R7">
-        <v>329.806226986781</v>
-      </c>
-      <c r="S7">
-        <v>0.5024368557364541</v>
-      </c>
-      <c r="T7">
-        <v>0.5024368557364541</v>
+      <c r="O8">
+        <v>0.6924542622754842</v>
+      </c>
+      <c r="P8">
+        <v>0.6924542622754842</v>
+      </c>
+      <c r="Q8">
+        <v>0.08269879152344446</v>
+      </c>
+      <c r="R8">
+        <v>0.7442891237110001</v>
+      </c>
+      <c r="S8">
+        <v>0.001584236627083175</v>
+      </c>
+      <c r="T8">
+        <v>0.001584236627083174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.2020363333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.606109</v>
+      </c>
+      <c r="I9">
+        <v>0.002287857427402051</v>
+      </c>
+      <c r="J9">
+        <v>0.002287857427402051</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1817976666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.545393</v>
+      </c>
+      <c r="O9">
+        <v>0.3075457377245157</v>
+      </c>
+      <c r="P9">
+        <v>0.3075457377245158</v>
+      </c>
+      <c r="Q9">
+        <v>0.03672973398188889</v>
+      </c>
+      <c r="R9">
+        <v>0.330567605837</v>
+      </c>
+      <c r="S9">
+        <v>0.0007036208003188765</v>
+      </c>
+      <c r="T9">
+        <v>0.0007036208003188765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>41.77897400000001</v>
+      </c>
+      <c r="H10">
+        <v>125.336922</v>
+      </c>
+      <c r="I10">
+        <v>0.4731046856677785</v>
+      </c>
+      <c r="J10">
+        <v>0.4731046856677785</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.4093263333333334</v>
+      </c>
+      <c r="N10">
+        <v>1.227979</v>
+      </c>
+      <c r="O10">
+        <v>0.6924542622754842</v>
+      </c>
+      <c r="P10">
+        <v>0.6924542622754842</v>
+      </c>
+      <c r="Q10">
+        <v>17.10123423784867</v>
+      </c>
+      <c r="R10">
+        <v>153.911108140638</v>
+      </c>
+      <c r="S10">
+        <v>0.3276033560931564</v>
+      </c>
+      <c r="T10">
+        <v>0.3276033560931564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>41.77897400000001</v>
+      </c>
+      <c r="H11">
+        <v>125.336922</v>
+      </c>
+      <c r="I11">
+        <v>0.4731046856677785</v>
+      </c>
+      <c r="J11">
+        <v>0.4731046856677785</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1817976666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.545393</v>
+      </c>
+      <c r="O11">
+        <v>0.3075457377245157</v>
+      </c>
+      <c r="P11">
+        <v>0.3075457377245158</v>
+      </c>
+      <c r="Q11">
+        <v>7.595319988927334</v>
+      </c>
+      <c r="R11">
+        <v>68.35787990034601</v>
+      </c>
+      <c r="S11">
+        <v>0.1455013295746221</v>
+      </c>
+      <c r="T11">
+        <v>0.1455013295746221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>17.60794066666666</v>
+      </c>
+      <c r="H12">
+        <v>52.82382199999999</v>
+      </c>
+      <c r="I12">
+        <v>0.1993921448229012</v>
+      </c>
+      <c r="J12">
+        <v>0.1993921448229012</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.4093263333333334</v>
+      </c>
+      <c r="N12">
+        <v>1.227979</v>
+      </c>
+      <c r="O12">
+        <v>0.6924542622754842</v>
+      </c>
+      <c r="P12">
+        <v>0.6924542622754842</v>
+      </c>
+      <c r="Q12">
+        <v>7.207393790637556</v>
+      </c>
+      <c r="R12">
+        <v>64.86654411573799</v>
+      </c>
+      <c r="S12">
+        <v>0.1380699405468686</v>
+      </c>
+      <c r="T12">
+        <v>0.1380699405468686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>17.60794066666666</v>
+      </c>
+      <c r="H13">
+        <v>52.82382199999999</v>
+      </c>
+      <c r="I13">
+        <v>0.1993921448229012</v>
+      </c>
+      <c r="J13">
+        <v>0.1993921448229012</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1817976666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.545393</v>
+      </c>
+      <c r="O13">
+        <v>0.3075457377245157</v>
+      </c>
+      <c r="P13">
+        <v>0.3075457377245158</v>
+      </c>
+      <c r="Q13">
+        <v>3.201082528005111</v>
+      </c>
+      <c r="R13">
+        <v>28.809742752046</v>
+      </c>
+      <c r="S13">
+        <v>0.06132220427603264</v>
+      </c>
+      <c r="T13">
+        <v>0.06132220427603265</v>
       </c>
     </row>
   </sheetData>
